--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl2-Ackr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.658831</v>
+        <v>0.07794266666666667</v>
       </c>
       <c r="H2">
-        <v>70.976493</v>
+        <v>0.233828</v>
       </c>
       <c r="I2">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="J2">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>272.484229703238</v>
+        <v>0.897683722736889</v>
       </c>
       <c r="R2">
-        <v>2452.358067329142</v>
+        <v>8.079153504632</v>
       </c>
       <c r="S2">
-        <v>0.4072859458409285</v>
+        <v>0.002827880818927331</v>
       </c>
       <c r="T2">
-        <v>0.4072859458409285</v>
+        <v>0.00282788081892733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>75.672584</v>
       </c>
       <c r="I3">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="J3">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>2614.615966557296</v>
       </c>
       <c r="S3">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907317</v>
       </c>
       <c r="T3">
-        <v>0.4342336264580882</v>
+        <v>0.9151728997907316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.205968666666667</v>
+        <v>2.260080333333333</v>
       </c>
       <c r="H4">
-        <v>27.617906</v>
+        <v>6.780241</v>
       </c>
       <c r="I4">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="J4">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>106.0272707814182</v>
+        <v>26.02986803091711</v>
       </c>
       <c r="R4">
-        <v>954.245437032764</v>
+        <v>234.268812278254</v>
       </c>
       <c r="S4">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
       <c r="T4">
-        <v>0.1584804277009834</v>
+        <v>0.08199921939034102</v>
       </c>
     </row>
   </sheetData>
